--- a/src/SNS_DB/SNS DB 및 화면 구성설계.xlsx
+++ b/src/SNS_DB/SNS DB 및 화면 구성설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-706-14\Desktop\react_sample2\SNS_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-706-14\Desktop\react_sample2\src\SNS_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBC13F-76BD-483F-93E6-06DA5A1837E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C854F10-C237-4C8F-86A0-F0A51479B0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="465" windowWidth="23085" windowHeight="14265" xr2:uid="{2D83B361-9452-4284-B1DC-4871AC8F280C}"/>
+    <workbookView xWindow="345" yWindow="540" windowWidth="26595" windowHeight="14265" xr2:uid="{2D83B361-9452-4284-B1DC-4871AC8F280C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="103">
   <si>
     <t>Navbar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,34 @@
   </si>
   <si>
     <t>로그인 안했을 때의 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_POSTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -509,21 +537,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,9 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,6 +592,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,601 +922,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43CBE70-3C86-43BF-9CCF-7A0A4235587E}">
-  <dimension ref="B3:P32"/>
+  <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="3" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="K17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="O17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="K18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="O18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="O20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="4" t="s">
+    <row r="21" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="O21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="O22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="O23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3" t="s">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="O24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3" t="s">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="O25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3" t="s">
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="J17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="F19" s="3" t="s">
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="K28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="K29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="9" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="I31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F32" s="5" t="s">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="4"/>
+      <c r="K32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="M32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,522 +1592,522 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="D24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="F28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
